--- a/biology/Botanique/Victor_Reverdatto/Victor_Reverdatto.xlsx
+++ b/biology/Botanique/Victor_Reverdatto/Victor_Reverdatto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Vladimirovitch Reverdatto (Виктор Владимирович Ревердатто), né le 5 juin 1891 à Kharkov et mort le 14 mars 1969 à Tomsk, est un botaniste soviétique spécialisé dans la flore de Sibérie. Il est docteur en biologie (1935), professeur d'université (1925) et lauréat du prix Staline (1947) et auteur de nombreuses publications à propos des plantes médicinales et de l'histoire de la flore.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Reverdatto naît à Kharkov. Son père, citoyen français, devient sujet de l'Empire russe en 1892 et prend le poste de juge de paix à Novonikolaïevsk. Il meurt du typhus pendant la guerre civile russe en 1920 dans une prison de la Tchéka. Sa mère, Russe d'ascendance noble, est professeur de lycée. Elle meurt en 1941. Victor Reverdatto devient sujet de l'Empire russe en 1913, à sa majorité.
 Il fréquente le lycée moderne (Realgymnasium) de Tomsk, dont il sort en 1908, puis entre en 1911 au département de chimie de l'institut technologique de Tomsk. C'est un membre actif du cercle des jeunes botanistes de l'herbarium de l'université de Tomsk, dont font également partie Chichkine, Outkine, Tioumentsev, Serguievskaïa, Popova et Pokrovskaïa. Le professeur Krylov remarque les capacités du jeune Reverdatto et le fait participer à une expédition scientifique dans l'Arctique au large de l'Iénisseï.
@@ -548,7 +562,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les plantes baptisées de son nom, on peut distinguer les espèces suivantes :
 Astragalus reverdattoanus Sumnev.
@@ -585,7 +601,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Наблюдения, проведенные летом 1917 г. в низовьях р. Енисея, и список растений, собранных там. Томск, 1917 [Expédition de l'été 1917 dans le cours inférieur de l'Iénisseï et liste des plantes recueillies]
 Растительные зоны Абаканской степи // Изв. ТГУ. 1924. Т. 7 [Les plantes de la zone de la steppe de l'Abakan]
@@ -595,9 +613,43 @@
 Растительность Сибири. 1931. Ч. 3. [Les plantes de Sibérie]
 Ледниковые реликты во флоре Хакасских степей, 1935 [Les reliquats glaciaires de la flore des steppes de Khakassie]
 Введение в фитоценологию. Томск, 1935. Ч. 1; Совм. с А. П. Сергиевской [Présentation de phytocénologie] en collaboration avec A.P. Serguievskaïa
-Флора Красноярского края, 1960 [La Flore du kraï de Krasnodar]
-Traductions en anglais
-1973. The facies of contact metamorphism. Édité par V. S. Sobolev. et traduit du russe par D. A. Brown. vii + 263 pp.  (ISBN 0-7081-0705-2)</t>
+Флора Красноярского края, 1960 [La Flore du kraï de Krasnodar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Victor_Reverdatto</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Victor_Reverdatto</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions en anglais</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1973. The facies of contact metamorphism. Édité par V. S. Sobolev. et traduit du russe par D. A. Brown. vii + 263 pp.  (ISBN 0-7081-0705-2)</t>
         </is>
       </c>
     </row>
